--- a/陈铮/日报/8月27 个人总结.xlsx
+++ b/陈铮/日报/8月27 个人总结.xlsx
@@ -458,7 +458,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D3"/>
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -485,7 +485,7 @@
     </row>
     <row r="2" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4">
-        <v>41877</v>
+        <v>41878</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>4</v>
